--- a/cfg-generator/src/main/resources/meta_excels/武将表_General.xlsx
+++ b/cfg-generator/src/main/resources/meta_excels/武将表_General.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,20 +32,6 @@
           </rPr>
           <t xml:space="preserve">作者:
 此处数量以校场为准</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-升阶点亮加成</t>
         </r>
       </text>
     </comment>
@@ -105,12 +91,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+升阶点亮加成</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>武将ID</t>
   </si>
@@ -121,6 +121,9 @@
     <t>武将资源</t>
   </si>
   <si>
+    <t>图标资源</t>
+  </si>
+  <si>
     <t>武将类型</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>resource</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
   <si>
     <t>generalType</t>
@@ -327,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -723,10 +729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="2:2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -737,7 +743,7 @@
     <col min="22" max="23" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -831,219 +837,228 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="s">
         <v>32</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
